--- a/report/transactions16_5_2024_113912.xlsx
+++ b/report/transactions16_5_2024_113912.xlsx
@@ -1,19 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3D7C5C-96C3-4FBA-B0CB-AC1AF81646BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Environment" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Transactions" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Logs" state="visible" r:id="rId6"/>
+    <sheet name="Environment" sheetId="1" r:id="rId1"/>
+    <sheet name="Transactions" sheetId="2" r:id="rId2"/>
+    <sheet name="Logs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Environment</t>
   </si>
@@ -87,9 +102,6 @@
     <t>Failed</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>PASSED</t>
   </si>
   <si>
@@ -100,22 +112,54 @@
   </si>
   <si>
     <t>Response Data</t>
+  </si>
+  <si>
+    <t>Register - Peak load testing</t>
+  </si>
+  <si>
+    <t>Register - Load testing</t>
+  </si>
+  <si>
+    <t>Register - Stress testing</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Login - Peak load testing</t>
+  </si>
+  <si>
+    <t>Login - Load testing</t>
+  </si>
+  <si>
+    <t>Login - Stress testing</t>
+  </si>
+  <si>
+    <t>Add Book to List - Peak load testing</t>
+  </si>
+  <si>
+    <t>Add Book to List - Load testing</t>
+  </si>
+  <si>
+    <t>Add Book to List - Stress testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -127,11 +171,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC00"/>
+        <fgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -140,21 +184,54 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,11 +570,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -537,7 +617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -559,16 +639,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.54296875" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -594,59 +689,296 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2">
+      <c r="C2" s="3">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2">
+        <v>405</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2439</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1025.08</v>
+      </c>
+      <c r="G2" s="2">
         <v>50</v>
       </c>
-      <c r="D2">
-        <v>405</v>
-      </c>
-      <c r="E2">
-        <v>2439</v>
-      </c>
-      <c r="F2">
-        <v>1025.08</v>
-      </c>
-      <c r="G2">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3">
+        <v>150</v>
+      </c>
+      <c r="D3" s="2">
+        <v>604</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3125</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1452.67</v>
+      </c>
+      <c r="G3" s="2">
+        <v>112</v>
+      </c>
+      <c r="H3" s="2">
+        <f>C3-G3</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3">
         <v>50</v>
       </c>
-      <c r="H2">
+      <c r="D4" s="2">
+        <v>303</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1590</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1044.5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H10" si="0">C4-G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3">
+        <v>100</v>
+      </c>
+      <c r="D5" s="2">
+        <f>D2+7</f>
+        <v>412</v>
+      </c>
+      <c r="E5" s="2">
+        <f>E2+15</f>
+        <v>2454</v>
+      </c>
+      <c r="F5" s="2">
+        <f>F2+19.5</f>
+        <v>1044.58</v>
+      </c>
+      <c r="G5" s="2">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3">
+        <v>250</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ref="D6:D10" si="1">D3+7</f>
+        <v>611</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" ref="E6:E10" si="2">E3+15</f>
+        <v>3140</v>
+      </c>
+      <c r="F6" s="2">
+        <f>F3+7.8</f>
+        <v>1460.47</v>
+      </c>
+      <c r="G6" s="2">
+        <v>250</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3">
+        <v>500</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="2"/>
+        <v>1605</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" ref="F7:F10" si="3">F4+7.8</f>
+        <v>1052.3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>345</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3">
+        <v>100</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>419</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="2"/>
+        <v>2469</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="3"/>
+        <v>1052.3799999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <v>89</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3">
+        <v>250</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>618</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="2"/>
+        <v>3155</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="3"/>
+        <v>1468.27</v>
+      </c>
+      <c r="G9" s="2">
+        <v>250</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>317</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="2"/>
+        <v>1620</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="3"/>
+        <v>1060.0999999999999</v>
+      </c>
+      <c r="G10" s="2">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>